--- a/Code/Results/Cases/Case_1_78/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_78/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.311516525563377</v>
+        <v>1.61145397019385</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.330466692551127</v>
+        <v>0.1636551043816326</v>
       </c>
       <c r="E2">
-        <v>3.679453136683094</v>
+        <v>1.066153845970831</v>
       </c>
       <c r="F2">
-        <v>7.032304078116255</v>
+        <v>3.24750964577936</v>
       </c>
       <c r="G2">
-        <v>0.0006834726785881382</v>
+        <v>0.002474875086021955</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.487588183066208</v>
+        <v>0.5676273488914489</v>
       </c>
       <c r="M2">
-        <v>0.8982790927138922</v>
+        <v>0.4685782672052241</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.007422440683285</v>
+        <v>1.544447655151032</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2783395874558607</v>
+        <v>0.1570757988081937</v>
       </c>
       <c r="E3">
-        <v>3.145242799424466</v>
+        <v>0.9349628572062159</v>
       </c>
       <c r="F3">
-        <v>5.937908736955734</v>
+        <v>3.075998472660103</v>
       </c>
       <c r="G3">
-        <v>0.0007064472150848318</v>
+        <v>0.002486657333919957</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.267734189206266</v>
+        <v>0.5163001301755799</v>
       </c>
       <c r="M3">
-        <v>0.7716346019978033</v>
+        <v>0.4396726270139624</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.827005603597485</v>
+        <v>1.50421495334308</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2492873138099156</v>
+        <v>0.1532564574921196</v>
       </c>
       <c r="E4">
-        <v>2.831415425811286</v>
+        <v>0.8542832995625531</v>
       </c>
       <c r="F4">
-        <v>5.315663107090842</v>
+        <v>2.974296035923913</v>
       </c>
       <c r="G4">
-        <v>0.0007204602024736158</v>
+        <v>0.002494242662180476</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.137943568717276</v>
+        <v>0.4850659363444549</v>
       </c>
       <c r="M4">
-        <v>0.6966546326041936</v>
+        <v>0.4221872510633844</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.75478074625795</v>
+        <v>1.48804666923678</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2380446637113351</v>
+        <v>0.151753765122038</v>
       </c>
       <c r="E5">
-        <v>2.706260108293122</v>
+        <v>0.8213680156041505</v>
       </c>
       <c r="F5">
-        <v>5.072114189828113</v>
+        <v>2.93373080879644</v>
       </c>
       <c r="G5">
-        <v>0.0007261721975364566</v>
+        <v>0.002497422487713858</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.086086695483004</v>
+        <v>0.4724063753015457</v>
       </c>
       <c r="M5">
-        <v>0.6666613940938717</v>
+        <v>0.4151269443065786</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.742858847039912</v>
+        <v>1.485375589013273</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2362102034001907</v>
+        <v>0.1515074397237868</v>
       </c>
       <c r="E6">
-        <v>2.685622500593169</v>
+        <v>0.8159000219439889</v>
       </c>
       <c r="F6">
-        <v>5.032216370670312</v>
+        <v>2.927047301339229</v>
       </c>
       <c r="G6">
-        <v>0.0007271213928403696</v>
+        <v>0.002497955869313455</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.07753145965728</v>
+        <v>0.4703083525190834</v>
       </c>
       <c r="M6">
-        <v>0.6617114893686917</v>
+        <v>0.4139584920594146</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.826026642220711</v>
+        <v>1.503995985956351</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2491334455211529</v>
+        <v>0.1532359763658633</v>
       </c>
       <c r="E7">
-        <v>2.829717433058832</v>
+        <v>0.8538395524161615</v>
       </c>
       <c r="F7">
-        <v>5.312340811963281</v>
+        <v>2.973745434542934</v>
       </c>
       <c r="G7">
-        <v>0.0007205372010883902</v>
+        <v>0.002494285186615754</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.137240340909983</v>
+        <v>0.4848949298096841</v>
       </c>
       <c r="M7">
-        <v>0.6962480194792775</v>
+        <v>0.4220917708379659</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.205164414718354</v>
+        <v>1.588160289157599</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.311779916796965</v>
+        <v>0.1613397887891921</v>
       </c>
       <c r="E8">
-        <v>3.491741326255919</v>
+        <v>1.020942235808178</v>
       </c>
       <c r="F8">
-        <v>6.642942831830879</v>
+        <v>3.187607412408397</v>
       </c>
       <c r="G8">
-        <v>0.000691430842399168</v>
+        <v>0.002478865053605706</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.410516910442425</v>
+        <v>0.549870162785453</v>
       </c>
       <c r="M8">
-        <v>0.8539420481861484</v>
+        <v>0.4585564576046508</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.016121975781459</v>
+        <v>1.760519157846886</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.4674438142073996</v>
+        <v>0.179058423963582</v>
       </c>
       <c r="E9">
-        <v>4.956403034770091</v>
+        <v>1.34789514135224</v>
       </c>
       <c r="F9">
-        <v>9.804565939368473</v>
+        <v>3.636884731063589</v>
       </c>
       <c r="G9">
-        <v>0.0006320145104214622</v>
+        <v>0.002451388710044447</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>2.00485782195139</v>
+        <v>0.6796170358243216</v>
       </c>
       <c r="M9">
-        <v>1.193743297629368</v>
+        <v>0.5321982124874438</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.690456652796229</v>
+        <v>1.891765290238595</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.6232955969224179</v>
+        <v>0.1933019100173397</v>
       </c>
       <c r="E10">
-        <v>6.258773349168251</v>
+        <v>1.588085543697872</v>
       </c>
       <c r="F10">
-        <v>12.82226923971302</v>
+        <v>3.987035239147986</v>
       </c>
       <c r="G10">
-        <v>0.0005833054982582833</v>
+        <v>0.002432854244336969</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>2.515359001258105</v>
+        <v>0.7765194909036381</v>
       </c>
       <c r="M10">
-        <v>1.480599426771334</v>
+        <v>0.5876815863133089</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.03057472166779</v>
+        <v>1.952511354006333</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.7134103423762497</v>
+        <v>0.2000727703081111</v>
       </c>
       <c r="E11">
-        <v>6.960297746480194</v>
+        <v>1.69744932153651</v>
       </c>
       <c r="F11">
-        <v>14.51399594272476</v>
+        <v>4.151098936575977</v>
       </c>
       <c r="G11">
-        <v>0.0005583404995643437</v>
+        <v>0.002424774303784966</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>2.78111725122784</v>
+        <v>0.8209820041615785</v>
       </c>
       <c r="M11">
-        <v>1.627491955224656</v>
+        <v>0.6132399725089499</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.166982589608779</v>
+        <v>1.975666957555063</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.752181140403593</v>
+        <v>0.2026807178548324</v>
       </c>
       <c r="E12">
-        <v>7.252759868428882</v>
+        <v>1.738885093945981</v>
       </c>
       <c r="F12">
-        <v>15.231154775145</v>
+        <v>4.213947174904945</v>
       </c>
       <c r="G12">
-        <v>0.0005481702237560583</v>
+        <v>0.002421764628644598</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>2.889710107980534</v>
+        <v>0.8378765517697673</v>
       </c>
       <c r="M12">
-        <v>1.686942307546573</v>
+        <v>0.622965544468272</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.137193028341187</v>
+        <v>1.970673163383935</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.7435739836866162</v>
+        <v>0.2021170606477654</v>
       </c>
       <c r="E13">
-        <v>7.188280994901248</v>
+        <v>1.729960049767101</v>
       </c>
       <c r="F13">
-        <v>15.07247943087339</v>
+        <v>4.200379072855924</v>
       </c>
       <c r="G13">
-        <v>0.0005504008129678086</v>
+        <v>0.002422410599689255</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>2.865885938093555</v>
+        <v>0.8342354033709967</v>
       </c>
       <c r="M13">
-        <v>1.673929979908991</v>
+        <v>0.6208688488548404</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.041619439431543</v>
+        <v>1.954413309895187</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.7164896491665047</v>
+        <v>0.2002864344747479</v>
       </c>
       <c r="E14">
-        <v>6.983719109030488</v>
+        <v>1.700857779275708</v>
       </c>
       <c r="F14">
-        <v>14.57118320144207</v>
+        <v>4.156254854602594</v>
       </c>
       <c r="G14">
-        <v>0.0005575210075607059</v>
+        <v>0.002424525696584745</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>2.789863419770853</v>
+        <v>0.822370758923455</v>
       </c>
       <c r="M14">
-        <v>1.632293117757143</v>
+        <v>0.6140391480133616</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.984193403433551</v>
+        <v>1.944473605527833</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.7005900672530743</v>
+        <v>0.1991709114700484</v>
       </c>
       <c r="E15">
-        <v>6.862415705668809</v>
+        <v>1.683034909860254</v>
       </c>
       <c r="F15">
-        <v>14.27547497694371</v>
+        <v>4.129322395148449</v>
       </c>
       <c r="G15">
-        <v>0.0005617748807931373</v>
+        <v>0.00242582775336512</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>2.74447384887381</v>
+        <v>0.8151109015989277</v>
       </c>
       <c r="M15">
-        <v>1.607352758187801</v>
+        <v>0.6098619421705678</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.669094007496483</v>
+        <v>1.887816570913856</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.6179201205360414</v>
+        <v>0.1928654576430233</v>
       </c>
       <c r="E16">
-        <v>6.215871030123765</v>
+        <v>1.580941024985435</v>
       </c>
       <c r="F16">
-        <v>12.72020552982542</v>
+        <v>3.976412306616453</v>
       </c>
       <c r="G16">
-        <v>0.0005848593806922982</v>
+        <v>0.00243338931590638</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>2.49887902323286</v>
+        <v>0.7736216624328733</v>
       </c>
       <c r="M16">
-        <v>1.471429937369152</v>
+        <v>0.5860178116599002</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.485753285076044</v>
+        <v>1.853327895180485</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.5730466146980007</v>
+        <v>0.1890733569154577</v>
       </c>
       <c r="E17">
-        <v>5.852590367689317</v>
+        <v>1.5183406954433</v>
       </c>
       <c r="F17">
-        <v>11.86285584030963</v>
+        <v>3.883854487601866</v>
       </c>
       <c r="G17">
-        <v>0.0005981486623103534</v>
+        <v>0.002438117744896985</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>2.35835432247049</v>
+        <v>0.7482688864872102</v>
       </c>
       <c r="M17">
-        <v>1.392978079792272</v>
+        <v>0.5714727700869986</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.383206829576295</v>
+        <v>1.833588790781505</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.5488869922247659</v>
+        <v>0.1869195445541152</v>
       </c>
       <c r="E18">
-        <v>5.652970075327573</v>
+        <v>1.482343565069613</v>
       </c>
       <c r="F18">
-        <v>11.39717779816289</v>
+        <v>3.831065372630576</v>
       </c>
       <c r="G18">
-        <v>0.0006055543812374132</v>
+        <v>0.002440870526822696</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>2.280421908447863</v>
+        <v>0.7337223382847071</v>
       </c>
       <c r="M18">
-        <v>1.349276005260364</v>
+        <v>0.5631367625549473</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.348929991486386</v>
+        <v>1.826922201010916</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.5409547548143792</v>
+        <v>0.1861949282176454</v>
       </c>
       <c r="E19">
-        <v>5.586774496799137</v>
+        <v>1.470156859434155</v>
       </c>
       <c r="F19">
-        <v>11.24363614564277</v>
+        <v>3.813267765839328</v>
       </c>
       <c r="G19">
-        <v>0.0006080269194755437</v>
+        <v>0.002441808274583099</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>2.254471878297437</v>
+        <v>0.728803176342808</v>
       </c>
       <c r="M19">
-        <v>1.33469478618386</v>
+        <v>0.5603194321288214</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.504955427315451</v>
+        <v>1.856989125951941</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.5776436195929762</v>
+        <v>0.1894741919274452</v>
       </c>
       <c r="E20">
-        <v>5.890243444418473</v>
+        <v>1.525003629266308</v>
       </c>
       <c r="F20">
-        <v>11.95113332585984</v>
+        <v>3.893660849629924</v>
       </c>
       <c r="G20">
-        <v>0.0005967601282958629</v>
+        <v>0.002437610972061218</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>2.372998643326326</v>
+        <v>0.7509640186186175</v>
       </c>
       <c r="M20">
-        <v>1.401175092642305</v>
+        <v>0.5730180089841213</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.069450221469424</v>
+        <v>1.959185065700694</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.7242948382763643</v>
+        <v>0.2008229237017929</v>
       </c>
       <c r="E21">
-        <v>7.042933819525445</v>
+        <v>1.709405158821767</v>
       </c>
       <c r="F21">
-        <v>14.71595929398489</v>
+        <v>4.169195368713815</v>
       </c>
       <c r="G21">
-        <v>0.0005554530640178221</v>
+        <v>0.002423903087900303</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>2.811937653256649</v>
+        <v>0.8258541078284338</v>
       </c>
       <c r="M21">
-        <v>1.644400700046191</v>
+        <v>0.6160439056687892</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.486670533150004</v>
+        <v>2.026865567260757</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.8500118960162126</v>
+        <v>0.2084972650356178</v>
       </c>
       <c r="E22">
-        <v>7.96913986843299</v>
+        <v>1.830054803305131</v>
       </c>
       <c r="F22">
-        <v>17.01398543300121</v>
+        <v>4.353491329542692</v>
       </c>
       <c r="G22">
-        <v>0.0005238191490158393</v>
+        <v>0.002415235518297925</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>3.149701277632971</v>
+        <v>0.8751359838992414</v>
       </c>
       <c r="M22">
-        <v>1.827742692199578</v>
+        <v>0.6444394026641049</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.257770814766843</v>
+        <v>1.990660914911587</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.7789199508035267</v>
+        <v>0.2043770856054721</v>
       </c>
       <c r="E23">
-        <v>7.451504818635044</v>
+        <v>1.765647033560811</v>
       </c>
       <c r="F23">
-        <v>15.72218041264057</v>
+        <v>4.25473172100817</v>
       </c>
       <c r="G23">
-        <v>0.0005413356810081745</v>
+        <v>0.002419835080817607</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>2.962715792202573</v>
+        <v>0.8488015488837846</v>
       </c>
       <c r="M23">
-        <v>1.726705979000613</v>
+        <v>0.6292585168173019</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.496265406461418</v>
+        <v>1.85533360682831</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.5755603215502276</v>
+        <v>0.1892928926027366</v>
       </c>
       <c r="E24">
-        <v>5.873192386345181</v>
+        <v>1.52199134040967</v>
       </c>
       <c r="F24">
-        <v>11.91114011410627</v>
+        <v>3.889226076452729</v>
       </c>
       <c r="G24">
-        <v>0.0005973885960598655</v>
+        <v>0.002437839977109249</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>2.366369235239716</v>
+        <v>0.7497454589473307</v>
       </c>
       <c r="M24">
-        <v>1.397464948243993</v>
+        <v>0.5723193251876779</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.786543380321405</v>
+        <v>1.713092959764083</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.4201846594268375</v>
+        <v>0.1740580816298092</v>
       </c>
       <c r="E25">
-        <v>4.532907712159613</v>
+        <v>1.259481613704935</v>
       </c>
       <c r="F25">
-        <v>8.862709660459018</v>
+        <v>3.511955555827967</v>
       </c>
       <c r="G25">
-        <v>0.0006486162657136033</v>
+        <v>0.00245852929788299</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.834853044330202</v>
+        <v>0.6442518001229871</v>
       </c>
       <c r="M25">
-        <v>1.097090166263143</v>
+        <v>0.5120398519429656</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_78/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_78/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.61145397019385</v>
+        <v>2.311516525563604</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1636551043816326</v>
+        <v>0.330466692551326</v>
       </c>
       <c r="E2">
-        <v>1.066153845970831</v>
+        <v>3.679453136683065</v>
       </c>
       <c r="F2">
-        <v>3.24750964577936</v>
+        <v>7.032304078116283</v>
       </c>
       <c r="G2">
-        <v>0.002474875086021955</v>
+        <v>0.0006834726786813211</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.5676273488914489</v>
+        <v>1.487588183066237</v>
       </c>
       <c r="M2">
-        <v>0.4685782672052241</v>
+        <v>0.898279092713878</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.544447655151032</v>
+        <v>2.007422440683172</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1570757988081937</v>
+        <v>0.2783395874560455</v>
       </c>
       <c r="E3">
-        <v>0.9349628572062159</v>
+        <v>3.145242799424437</v>
       </c>
       <c r="F3">
-        <v>3.075998472660103</v>
+        <v>5.937908736955791</v>
       </c>
       <c r="G3">
-        <v>0.002486657333919957</v>
+        <v>0.0007064472150258562</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.5163001301755799</v>
+        <v>1.267734189206294</v>
       </c>
       <c r="M3">
-        <v>0.4396726270139624</v>
+        <v>0.7716346019978317</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.50421495334308</v>
+        <v>1.827005603597456</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1532564574921196</v>
+        <v>0.2492873138096598</v>
       </c>
       <c r="E4">
-        <v>0.8542832995625531</v>
+        <v>2.831415425811286</v>
       </c>
       <c r="F4">
-        <v>2.974296035923913</v>
+        <v>5.31566310709087</v>
       </c>
       <c r="G4">
-        <v>0.002494242662180476</v>
+        <v>0.0007204602026160689</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4850659363444549</v>
+        <v>1.137943568717276</v>
       </c>
       <c r="M4">
-        <v>0.4221872510633844</v>
+        <v>0.6966546326042078</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.48804666923678</v>
+        <v>1.754780746258035</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.151753765122038</v>
+        <v>0.238044663710923</v>
       </c>
       <c r="E5">
-        <v>0.8213680156041505</v>
+        <v>2.706260108293122</v>
       </c>
       <c r="F5">
-        <v>2.93373080879644</v>
+        <v>5.072114189828113</v>
       </c>
       <c r="G5">
-        <v>0.002497422487713858</v>
+        <v>0.0007261721975866386</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4724063753015457</v>
+        <v>1.08608669548309</v>
       </c>
       <c r="M5">
-        <v>0.4151269443065786</v>
+        <v>0.6666613940938575</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.485375589013273</v>
+        <v>1.742858847039969</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1515074397237868</v>
+        <v>0.2362102034002049</v>
       </c>
       <c r="E6">
-        <v>0.8159000219439889</v>
+        <v>2.685622500593155</v>
       </c>
       <c r="F6">
-        <v>2.927047301339229</v>
+        <v>5.032216370670284</v>
       </c>
       <c r="G6">
-        <v>0.002497955869313455</v>
+        <v>0.0007271213929275449</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4703083525190834</v>
+        <v>1.077531459657223</v>
       </c>
       <c r="M6">
-        <v>0.4139584920594146</v>
+        <v>0.6617114893686846</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.503995985956351</v>
+        <v>1.826026642220853</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1532359763658633</v>
+        <v>0.2491334455212808</v>
       </c>
       <c r="E7">
-        <v>0.8538395524161615</v>
+        <v>2.829717433058889</v>
       </c>
       <c r="F7">
-        <v>2.973745434542934</v>
+        <v>5.31234081196331</v>
       </c>
       <c r="G7">
-        <v>0.002494285186615754</v>
+        <v>0.0007205372010517387</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4848949298096841</v>
+        <v>1.137240340909983</v>
       </c>
       <c r="M7">
-        <v>0.4220917708379659</v>
+        <v>0.6962480194792704</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.588160289157599</v>
+        <v>2.205164414718183</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1613397887891921</v>
+        <v>0.3117799167969935</v>
       </c>
       <c r="E8">
-        <v>1.020942235808178</v>
+        <v>3.491741326255919</v>
       </c>
       <c r="F8">
-        <v>3.187607412408397</v>
+        <v>6.642942831830823</v>
       </c>
       <c r="G8">
-        <v>0.002478865053605706</v>
+        <v>0.0006914308424950937</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.549870162785453</v>
+        <v>1.41051691044234</v>
       </c>
       <c r="M8">
-        <v>0.4585564576046508</v>
+        <v>0.8539420481861768</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.760519157846886</v>
+        <v>3.016121975781346</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.179058423963582</v>
+        <v>0.4674438142073711</v>
       </c>
       <c r="E9">
-        <v>1.34789514135224</v>
+        <v>4.956403034770148</v>
       </c>
       <c r="F9">
-        <v>3.636884731063589</v>
+        <v>9.804565939368672</v>
       </c>
       <c r="G9">
-        <v>0.002451388710044447</v>
+        <v>0.000632014510517124</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.6796170358243216</v>
+        <v>2.004857821951475</v>
       </c>
       <c r="M9">
-        <v>0.5321982124874438</v>
+        <v>1.193743297629354</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.891765290238595</v>
+        <v>3.690456652796058</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1933019100173397</v>
+        <v>0.6232955969226168</v>
       </c>
       <c r="E10">
-        <v>1.588085543697872</v>
+        <v>6.258773349168194</v>
       </c>
       <c r="F10">
-        <v>3.987035239147986</v>
+        <v>12.82226923971308</v>
       </c>
       <c r="G10">
-        <v>0.002432854244336969</v>
+        <v>0.000583305498353707</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.7765194909036381</v>
+        <v>2.515359001258275</v>
       </c>
       <c r="M10">
-        <v>0.5876815863133089</v>
+        <v>1.480599426771334</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.952511354006333</v>
+        <v>4.03057472166779</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2000727703081111</v>
+        <v>0.713410342376477</v>
       </c>
       <c r="E11">
-        <v>1.69744932153651</v>
+        <v>6.960297746480279</v>
       </c>
       <c r="F11">
-        <v>4.151098936575977</v>
+        <v>14.5139959427247</v>
       </c>
       <c r="G11">
-        <v>0.002424774303784966</v>
+        <v>0.000558340499381387</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.8209820041615785</v>
+        <v>2.781117251227755</v>
       </c>
       <c r="M11">
-        <v>0.6132399725089499</v>
+        <v>1.62749195522467</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.975666957555063</v>
+        <v>4.166982589608949</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2026807178548324</v>
+        <v>0.7521811404035645</v>
       </c>
       <c r="E12">
-        <v>1.738885093945981</v>
+        <v>7.252759868428996</v>
       </c>
       <c r="F12">
-        <v>4.213947174904945</v>
+        <v>15.23115477514506</v>
       </c>
       <c r="G12">
-        <v>0.002421764628644598</v>
+        <v>0.0005481702237886762</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.8378765517697673</v>
+        <v>2.889710107980449</v>
       </c>
       <c r="M12">
-        <v>0.622965544468272</v>
+        <v>1.686942307546559</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.970673163383935</v>
+        <v>4.137193028341244</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2021170606477654</v>
+        <v>0.7435739836864457</v>
       </c>
       <c r="E13">
-        <v>1.729960049767101</v>
+        <v>7.188280994901305</v>
       </c>
       <c r="F13">
-        <v>4.200379072855924</v>
+        <v>15.07247943087339</v>
       </c>
       <c r="G13">
-        <v>0.002422410599689255</v>
+        <v>0.0005504008130279292</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.8342354033709967</v>
+        <v>2.865885938093527</v>
       </c>
       <c r="M13">
-        <v>0.6208688488548404</v>
+        <v>1.673929979908962</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.954413309895187</v>
+        <v>4.041619439431599</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2002864344747479</v>
+        <v>0.7164896491662205</v>
       </c>
       <c r="E14">
-        <v>1.700857779275708</v>
+        <v>6.983719109030659</v>
       </c>
       <c r="F14">
-        <v>4.156254854602594</v>
+        <v>14.57118320144218</v>
       </c>
       <c r="G14">
-        <v>0.002424525696584745</v>
+        <v>0.000557521007550095</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.822370758923455</v>
+        <v>2.789863419770853</v>
       </c>
       <c r="M14">
-        <v>0.6140391480133616</v>
+        <v>1.632293117757172</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.944473605527833</v>
+        <v>3.984193403433551</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1991709114700484</v>
+        <v>0.7005900672536995</v>
       </c>
       <c r="E15">
-        <v>1.683034909860254</v>
+        <v>6.862415705668809</v>
       </c>
       <c r="F15">
-        <v>4.129322395148449</v>
+        <v>14.27547497694377</v>
       </c>
       <c r="G15">
-        <v>0.00242582775336512</v>
+        <v>0.000561774880789703</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.8151109015989277</v>
+        <v>2.744473848873753</v>
       </c>
       <c r="M15">
-        <v>0.6098619421705678</v>
+        <v>1.607352758187844</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.887816570913856</v>
+        <v>3.669094007496483</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1928654576430233</v>
+        <v>0.6179201205359846</v>
       </c>
       <c r="E16">
-        <v>1.580941024985435</v>
+        <v>6.215871030123793</v>
       </c>
       <c r="F16">
-        <v>3.976412306616453</v>
+        <v>12.72020552982553</v>
       </c>
       <c r="G16">
-        <v>0.00243338931590638</v>
+        <v>0.0005848593808011529</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.7736216624328733</v>
+        <v>2.498879023232774</v>
       </c>
       <c r="M16">
-        <v>0.5860178116599002</v>
+        <v>1.471429937369152</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.853327895180485</v>
+        <v>3.485753285076044</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1890733569154577</v>
+        <v>0.5730466146978301</v>
       </c>
       <c r="E17">
-        <v>1.5183406954433</v>
+        <v>5.85259036768926</v>
       </c>
       <c r="F17">
-        <v>3.883854487601866</v>
+        <v>11.86285584030958</v>
       </c>
       <c r="G17">
-        <v>0.002438117744896985</v>
+        <v>0.000598148662216384</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.7482688864872102</v>
+        <v>2.358354322470433</v>
       </c>
       <c r="M17">
-        <v>0.5714727700869986</v>
+        <v>1.392978079792272</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.833588790781505</v>
+        <v>3.383206829576352</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1869195445541152</v>
+        <v>0.5488869922249364</v>
       </c>
       <c r="E18">
-        <v>1.482343565069613</v>
+        <v>5.652970075327715</v>
       </c>
       <c r="F18">
-        <v>3.831065372630576</v>
+        <v>11.39717779816317</v>
       </c>
       <c r="G18">
-        <v>0.002440870526822696</v>
+        <v>0.0006055543813325421</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.7337223382847071</v>
+        <v>2.280421908447977</v>
       </c>
       <c r="M18">
-        <v>0.5631367625549473</v>
+        <v>1.349276005260393</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.826922201010916</v>
+        <v>3.348929991486386</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1861949282176454</v>
+        <v>0.5409547548144076</v>
       </c>
       <c r="E19">
-        <v>1.470156859434155</v>
+        <v>5.586774496799109</v>
       </c>
       <c r="F19">
-        <v>3.813267765839328</v>
+        <v>11.2436361456428</v>
       </c>
       <c r="G19">
-        <v>0.002441808274583099</v>
+        <v>0.000608026919251428</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.728803176342808</v>
+        <v>2.254471878297352</v>
       </c>
       <c r="M19">
-        <v>0.5603194321288214</v>
+        <v>1.334694786183846</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.856989125951941</v>
+        <v>3.504955427315451</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1894741919274452</v>
+        <v>0.5776436195931751</v>
       </c>
       <c r="E20">
-        <v>1.525003629266308</v>
+        <v>5.890243444418473</v>
       </c>
       <c r="F20">
-        <v>3.893660849629924</v>
+        <v>11.95113332585984</v>
       </c>
       <c r="G20">
-        <v>0.002437610972061218</v>
+        <v>0.0005967601280993342</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.7509640186186175</v>
+        <v>2.372998643326412</v>
       </c>
       <c r="M20">
-        <v>0.5730180089841213</v>
+        <v>1.401175092642305</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.959185065700694</v>
+        <v>4.06945022146931</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2008229237017929</v>
+        <v>0.7242948382761654</v>
       </c>
       <c r="E21">
-        <v>1.709405158821767</v>
+        <v>7.042933819525274</v>
       </c>
       <c r="F21">
-        <v>4.169195368713815</v>
+        <v>14.7159592939845</v>
       </c>
       <c r="G21">
-        <v>0.002423903087900303</v>
+        <v>0.0005554530640640446</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.8258541078284338</v>
+        <v>2.811937653256649</v>
       </c>
       <c r="M21">
-        <v>0.6160439056687892</v>
+        <v>1.644400700046148</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.026865567260757</v>
+        <v>4.486670533149947</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2084972650356178</v>
+        <v>0.8500118960166674</v>
       </c>
       <c r="E22">
-        <v>1.830054803305131</v>
+        <v>7.96913986843299</v>
       </c>
       <c r="F22">
-        <v>4.353491329542692</v>
+        <v>17.0139854330011</v>
       </c>
       <c r="G22">
-        <v>0.002415235518297925</v>
+        <v>0.0005238191489318911</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.8751359838992414</v>
+        <v>3.149701277632886</v>
       </c>
       <c r="M22">
-        <v>0.6444394026641049</v>
+        <v>1.827742692199593</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.990660914911587</v>
+        <v>4.257770814766843</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2043770856054721</v>
+        <v>0.7789199508033278</v>
       </c>
       <c r="E23">
-        <v>1.765647033560811</v>
+        <v>7.451504818635044</v>
       </c>
       <c r="F23">
-        <v>4.25473172100817</v>
+        <v>15.72218041264034</v>
       </c>
       <c r="G23">
-        <v>0.002419835080817607</v>
+        <v>0.0005413356810136381</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.8488015488837846</v>
+        <v>2.962715792202573</v>
       </c>
       <c r="M23">
-        <v>0.6292585168173019</v>
+        <v>1.726705979000656</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.85533360682831</v>
+        <v>3.496265406461532</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1892928926027366</v>
+        <v>0.5755603215502845</v>
       </c>
       <c r="E24">
-        <v>1.52199134040967</v>
+        <v>5.873192386345266</v>
       </c>
       <c r="F24">
-        <v>3.889226076452729</v>
+        <v>11.91114011410613</v>
       </c>
       <c r="G24">
-        <v>0.002437839977109249</v>
+        <v>0.0005973885960695392</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.7497454589473307</v>
+        <v>2.366369235239603</v>
       </c>
       <c r="M24">
-        <v>0.5723193251876779</v>
+        <v>1.397464948244007</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.713092959764083</v>
+        <v>2.786543380321405</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1740580816298092</v>
+        <v>0.4201846594266527</v>
       </c>
       <c r="E25">
-        <v>1.259481613704935</v>
+        <v>4.532907712159584</v>
       </c>
       <c r="F25">
-        <v>3.511955555827967</v>
+        <v>8.862709660458961</v>
       </c>
       <c r="G25">
-        <v>0.00245852929788299</v>
+        <v>0.0006486162658210729</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.6442518001229871</v>
+        <v>1.834853044330202</v>
       </c>
       <c r="M25">
-        <v>0.5120398519429656</v>
+        <v>1.097090166263143</v>
       </c>
       <c r="N25">
         <v>0</v>
